--- a/Data/Exam 9 - Exam Analysis.xlsx
+++ b/Data/Exam 9 - Exam Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Didn't understand question</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Silly mistakes only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated variance wrong</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="193">
   <si>
     <t>Goldfarb</t>
   </si>
@@ -382,6 +464,258 @@
   </si>
   <si>
     <t>15.d.</t>
+  </si>
+  <si>
+    <t>ILW Warranty with binary trigger pays the full coverage when both triggers are satisfied.</t>
+  </si>
+  <si>
+    <t>22.c.</t>
+  </si>
+  <si>
+    <t>FYI: For RAROC calc, LR is assumed to be discounted to time t =1.</t>
+  </si>
+  <si>
+    <t>Investment income was paid at the end of each year, didn't show equity flow for time t = 2 and calculated paid losses incorrectly.</t>
+  </si>
+  <si>
+    <t>25.a.</t>
+  </si>
+  <si>
+    <t>25.b.</t>
+  </si>
+  <si>
+    <t>26.a.</t>
+  </si>
+  <si>
+    <t>26.b.</t>
+  </si>
+  <si>
+    <t>29.a.</t>
+  </si>
+  <si>
+    <t>29.b.</t>
+  </si>
+  <si>
+    <t>Panning uses risk-free rate to discount losses and losses had to be discounted since they are paid over 2 year period.</t>
+  </si>
+  <si>
+    <t>1.d.</t>
+  </si>
+  <si>
+    <t>1.e.</t>
+  </si>
+  <si>
+    <t>Market portfolio is the optimal risky portfolio under both CAPM and single-index model.</t>
+  </si>
+  <si>
+    <t>Didn't mention the strategy is called fundamental analysis</t>
+  </si>
+  <si>
+    <t>8.c.</t>
+  </si>
+  <si>
+    <t>8.d.</t>
+  </si>
+  <si>
+    <t>9.a.</t>
+  </si>
+  <si>
+    <t>9.b.</t>
+  </si>
+  <si>
+    <t>Again, subtracted liquidity premium under expectation hypothesis. Remember, under expectation hypothese, forward rate = expected short rate.</t>
+  </si>
+  <si>
+    <r>
+      <t>Didn't mention that under liquidity preference theory,  long-term investors may dominate the market so f(3) &lt; Er(3).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Long-term investors would dominate the market when we have up-ward sloping yield curve. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To long-term investors, liquidity premium is negative.</t>
+    </r>
+  </si>
+  <si>
+    <t>BKM 15 - Need to understand theory of term structure better.</t>
+  </si>
+  <si>
+    <t>Regulators won't be confused because we are not reducing duration of invested assets.</t>
+  </si>
+  <si>
+    <t>13.a.</t>
+  </si>
+  <si>
+    <t>13.b.</t>
+  </si>
+  <si>
+    <t>13.c.</t>
+  </si>
+  <si>
+    <t>Question asked for mechanism available to bond issuer, not purchaser.</t>
+  </si>
+  <si>
+    <t>flipped which one was cheaper. Slight mistake.</t>
+  </si>
+  <si>
+    <t>Question asked to use the provided information</t>
+  </si>
+  <si>
+    <t>Small error</t>
+  </si>
+  <si>
+    <r>
+      <t>co-TVaR here was just the regular co-TVaR measure, not using Bodoff's method to allocate until co-TVaR. Ne</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed to understand TVaR method under Bodoff.</t>
+    </r>
+  </si>
+  <si>
+    <t>18.c.</t>
+  </si>
+  <si>
+    <t>20.c.</t>
+  </si>
+  <si>
+    <t>Proper capital allocation helps understand profitability of line. Grow profitable lines. -&gt; value maximization</t>
+  </si>
+  <si>
+    <t>Didn't answer action for each line, as asked.</t>
+  </si>
+  <si>
+    <t>21.a.</t>
+  </si>
+  <si>
+    <t>21.b.</t>
+  </si>
+  <si>
+    <t>21.c.</t>
+  </si>
+  <si>
+    <t>Botched up variance calculation</t>
+  </si>
+  <si>
+    <t>24.a.</t>
+  </si>
+  <si>
+    <t>24.b.</t>
+  </si>
+  <si>
+    <t>Didn't quite answer the question</t>
+  </si>
+  <si>
+    <t>25.c.</t>
+  </si>
+  <si>
+    <t>2nd supporting argument was for different method</t>
+  </si>
+  <si>
+    <t>Using Shapley method restricted the range too much</t>
+  </si>
+  <si>
+    <t>4.c.</t>
+  </si>
+  <si>
+    <t>9.c.</t>
+  </si>
+  <si>
+    <t>Needed to use Utility function to figure out the stock with the highest utlity for the risk-averse investor. Misunderstood problem.</t>
+  </si>
+  <si>
+    <t>Market index is on the efficient frontier for CML.</t>
+  </si>
+  <si>
+    <t>For regulators prescribed cash flow limit, we are supposed to use risk-free rate.</t>
+  </si>
+  <si>
+    <t>Efficient frontier is a porton of the minimum variance frontier</t>
+  </si>
+  <si>
+    <t>ratios switched at the end</t>
+  </si>
+  <si>
+    <t>How to apply the rates from the yield curve. Different period YTMs are used as spot rates.</t>
+  </si>
+  <si>
+    <t>No longer need liquidity premium once we get close to the payout. Hence we take out liquidity premium under liquidity preference hypothesis.</t>
+  </si>
+  <si>
+    <t>Need to learn the coverage ratio equations</t>
+  </si>
+  <si>
+    <t>BKM 14 - Determinants of Bond Safety and things that are in protective covenants</t>
+  </si>
+  <si>
+    <t>Learn items in protective covenants</t>
+  </si>
+  <si>
+    <t>Did not definte industry loss index trigger</t>
+  </si>
+  <si>
+    <t>Made mistake in calculating price</t>
+  </si>
+  <si>
+    <t>Didn't answer 1 part of question</t>
+  </si>
+  <si>
+    <t>Made mistake in calculating price. CDO price: amt. x (1 - prob. Of default)</t>
+  </si>
+  <si>
+    <t>Need to learn definitions of risk capital, economic capital, etc.</t>
+  </si>
+  <si>
+    <t>Timing for Target RAROC</t>
+  </si>
+  <si>
+    <t>Goldfarb - Can calculate Target RAROC at t = 0 or t =1</t>
+  </si>
+  <si>
+    <t>Need to understand how to calculate premium usign contributed capital</t>
+  </si>
+  <si>
+    <t>Bodoff - How to calculate premium using contributed capital eq.</t>
+  </si>
+  <si>
+    <t>Need to understand the PVI/PVE methodology</t>
+  </si>
+  <si>
+    <t>Small mistake</t>
+  </si>
+  <si>
+    <t>Didn't provide the brief explanation</t>
+  </si>
+  <si>
+    <t>Mistake</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>coval</t>
   </si>
 </sst>
 </file>
@@ -391,7 +725,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +788,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,7 +824,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,6 +859,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -825,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,47 +1252,50 @@
         <v>34</v>
       </c>
       <c r="B2" s="9">
-        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A2='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A2='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A2='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A2='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D2" s="9">
-        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A2='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A2='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F2" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A2='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E2" s="9">
+        <f>IFERROR(SUMPRODUCT(($A2='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A2='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A2='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="9">
-        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>6.9620253164556958E-2</v>
       </c>
       <c r="L2" s="9">
-        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M2" s="9">
-        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>5.4945054945054944E-2</v>
-      </c>
-      <c r="N2" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O2" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>2.8735632183908046E-2</v>
+      </c>
+      <c r="N2" s="9">
+        <f>IFERROR(SUMPRODUCT(($A2='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O2" s="9">
+        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>3.71900826446281E-2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -937,47 +1303,50 @@
         <v>39</v>
       </c>
       <c r="B3" s="9">
-        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A3='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A3='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="C3" s="9">
-        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A3='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A3='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.94117647058823528</v>
       </c>
       <c r="D3" s="9">
-        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A3='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A3='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="E3" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F3" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A3='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E3" s="9">
+        <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A3='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A3='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
       <c r="K3" s="9">
-        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>6.9620253164556958E-2</v>
       </c>
       <c r="L3" s="9">
-        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>9.7701149425287362E-2</v>
       </c>
       <c r="M3" s="9">
-        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0.19780219780219779</v>
-      </c>
-      <c r="N3" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O3" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="N3" s="9">
+        <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="O3" s="9">
+        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.10743801652892562</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -985,47 +1354,50 @@
         <v>40</v>
       </c>
       <c r="B4" s="9">
-        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A4='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A4='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="C4" s="9">
-        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A4='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A4='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D4" s="9">
-        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A4='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A4='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A4='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A4='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A4='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="9">
-        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>3.7974683544303799E-2</v>
       </c>
       <c r="L4" s="9">
-        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="M4" s="9">
-        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>4.3956043956043959E-2</v>
-      </c>
-      <c r="N4" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O4" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>2.2988505747126436E-2</v>
+      </c>
+      <c r="N4" s="9">
+        <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1033,47 +1405,50 @@
         <v>38</v>
       </c>
       <c r="B5" s="9">
-        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A5='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A5='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.875</v>
       </c>
       <c r="C5" s="9">
-        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A5='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A5='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.6470588235294118</v>
       </c>
       <c r="D5" s="9">
-        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A5='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A5='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A5='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E5" s="9">
+        <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A5='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.8125</v>
+      </c>
+      <c r="F5" s="9">
+        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A5='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="9">
-        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="L5" s="9">
-        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>9.7701149425287362E-2</v>
       </c>
       <c r="M5" s="9">
-        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0.12087912087912088</v>
-      </c>
-      <c r="N5" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O5" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>6.3218390804597707E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.1487603305785124</v>
+      </c>
+      <c r="S5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1081,47 +1456,50 @@
         <v>41</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A6='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A6='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C6" s="9">
-        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A6='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A6='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A6='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A6='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A6='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A6='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A6='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="9">
-        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>2.8735632183908046E-2</v>
       </c>
       <c r="M6" s="9">
-        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O6" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N6" s="9">
+        <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1129,47 +1507,50 @@
         <v>42</v>
       </c>
       <c r="B7" s="9">
-        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A7='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A7='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A7='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A7='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D7" s="9">
-        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A7='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A7='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F7" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A7='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E7" s="9">
+        <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A7='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="9">
+        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A7='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="9">
-        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="L7" s="9">
-        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M7" s="9">
-        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0.16483516483516483</v>
-      </c>
-      <c r="N7" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O7" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="N7" s="9">
+        <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.05</v>
+      </c>
+      <c r="O7" s="9">
+        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1177,47 +1558,50 @@
         <v>43</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A8='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A8='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="9">
-        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A8='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A8='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.5</v>
       </c>
       <c r="D8" s="9">
-        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A8='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A8='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A8='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E8" s="9">
+        <f>IFERROR(SUMPRODUCT(($A8='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A8='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F8" s="9">
+        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A8='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="9">
-        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L8" s="9">
-        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>2.2988505747126436E-2</v>
       </c>
       <c r="M8" s="9">
-        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="N8" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O8" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>7.4712643678160925E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <f>IFERROR(SUMPRODUCT(($A8='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1225,47 +1609,50 @@
         <v>44</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A9='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A9='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A9='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A9='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A9='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A9='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A9='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E9" s="9">
+        <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A9='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F9" s="9">
+        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A9='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="9">
-        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O9" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N9" s="9">
+        <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="O9" s="9">
+        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1273,47 +1660,50 @@
         <v>45</v>
       </c>
       <c r="B10" s="9">
-        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A10='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A10='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.875</v>
       </c>
       <c r="C10" s="9">
-        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A10='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A10='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="D10" s="9">
-        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A10='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F10" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A10='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A10='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="9">
+        <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A10='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="F10" s="9">
+        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A10='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.375</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="9">
-        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="L10" s="9">
-        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>6.3218390804597707E-2</v>
       </c>
       <c r="M10" s="9">
-        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0.13186813186813187</v>
-      </c>
-      <c r="N10" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O10" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="O10" s="9">
+        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1321,47 +1711,50 @@
         <v>46</v>
       </c>
       <c r="B11" s="9">
-        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A11='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A11='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
       <c r="C11" s="9">
-        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A11='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A11='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="D11" s="9">
-        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A11='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A11='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A11='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E11" s="9">
+        <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A11='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A11='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.72727272727272729</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="9">
-        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>6.3291139240506333E-2</v>
       </c>
       <c r="L11" s="9">
-        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>5.1724137931034482E-2</v>
       </c>
       <c r="M11" s="9">
-        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>9.8901098901098897E-2</v>
-      </c>
-      <c r="N11" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O11" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O11" s="9">
+        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1369,47 +1762,47 @@
         <v>20</v>
       </c>
       <c r="B12" s="9">
-        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A12='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A12='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A12='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A12='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A12='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A12='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="E12" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A12='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A12='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A12='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="9">
-        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>4.4303797468354431E-2</v>
       </c>
       <c r="L12" s="9">
-        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N12" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O12" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N12" s="9">
+        <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1417,47 +1810,47 @@
         <v>21</v>
       </c>
       <c r="B13" s="9">
-        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A13='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A13='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A13='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A13='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D13" s="9">
-        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A13='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A13='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A13='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.76470588235294112</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A13='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A13='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="9">
-        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="L13" s="9">
-        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>4.3956043956043959E-2</v>
-      </c>
-      <c r="N13" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O13" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>6.3218390804597707E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="O13" s="9">
+        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1465,47 +1858,50 @@
         <v>22</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A14='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A14='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C14" s="9">
-        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A14='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A14='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="D14" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A14='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F14" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A14='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D14" s="9">
+        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A14='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E14" s="9">
+        <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A14='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="9">
+        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A14='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.875</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="9">
-        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>8.0459770114942528E-2</v>
       </c>
       <c r="M14" s="9">
-        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O14" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>9.7701149425287362E-2</v>
+      </c>
+      <c r="N14" s="9">
+        <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O14" s="9">
+        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1513,47 +1909,50 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A15='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A15='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A15='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A15='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A15='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A15='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="E15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="E15" s="9">
+        <f>IFERROR(SUMPRODUCT(($A15='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A15='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.6</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A15='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A15='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="9">
-        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L15" s="9">
-        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O15" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N15" s="9">
+        <f>IFERROR(SUMPRODUCT(($A15='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O15" s="9">
+        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1561,47 +1960,50 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A16='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A16='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C16" s="9">
-        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A16='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A16='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.875</v>
       </c>
-      <c r="D16" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A16='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F16" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A16='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D16" s="9">
+        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A16='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A16='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A16='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="9">
-        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L16" s="9">
-        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>4.5977011494252873E-2</v>
       </c>
       <c r="M16" s="9">
-        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O16" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="N16" s="9">
+        <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O16" s="9">
+        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1609,47 +2011,47 @@
         <v>0</v>
       </c>
       <c r="B17" s="9">
-        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A17='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A17='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.57894736842105265</v>
       </c>
       <c r="C17" s="9">
-        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A17='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A17='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="D17" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A17='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F17" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A17='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D17" s="9">
+        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A17='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E17" s="9">
+        <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A17='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="F17" s="9">
+        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A17='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.32</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.12025316455696203</v>
       </c>
       <c r="L17" s="9">
-        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.14942528735632185</v>
       </c>
       <c r="M17" s="9">
-        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O17" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="O17" s="9">
+        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.10330578512396695</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1657,47 +2059,47 @@
         <v>25</v>
       </c>
       <c r="B18" s="9">
-        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A18='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A18='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A18='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A18='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="D18" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A18='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F18" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A18='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D18" s="9">
+        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A18='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A18='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A18='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.5</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="9">
-        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>8.8607594936708861E-2</v>
       </c>
       <c r="L18" s="9">
-        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O18" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>4.5977011494252873E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="O18" s="9">
+        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>3.3057851239669422E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1705,47 +2107,47 @@
         <v>26</v>
       </c>
       <c r="B19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A19='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A19='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A19='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A19='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A19='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A19='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="E19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A19='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E19" s="9">
+        <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A19='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="F19" s="9">
+        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A19='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.72727272727272729</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="9">
-        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L19" s="9">
-        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O19" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N19" s="9">
+        <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="O19" s="9">
+        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1753,47 +2155,47 @@
         <v>27</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A20='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A20='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C20" s="9">
-        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A20='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A20='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.75</v>
       </c>
       <c r="D20" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A20='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A20='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="E20" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F20" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A20='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E20" s="9">
+        <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A20='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A20='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.8</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="9">
-        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L20" s="9">
-        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>4.5977011494252873E-2</v>
       </c>
       <c r="M20" s="9">
-        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N20" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O20" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N20" s="9">
+        <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.0661157024793389E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1801,47 +2203,47 @@
         <v>28</v>
       </c>
       <c r="B21" s="9">
-        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A21='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A21='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="C21" s="9">
-        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A21='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A21='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="D21" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A21='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F21" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A21='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D21" s="9">
+        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A21='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="E21" s="9">
+        <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A21='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A21='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.75862068965517238</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" s="9">
-        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>7.5949367088607597E-2</v>
       </c>
       <c r="L21" s="9">
-        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>9.7701149425287362E-2</v>
       </c>
       <c r="M21" s="9">
-        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O21" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>7.4712643678160925E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="O21" s="9">
+        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.11983471074380166</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1849,47 +2251,47 @@
         <v>29</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A22='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A22='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C22" s="9">
-        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A22='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A22='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.75</v>
       </c>
-      <c r="D22" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A22='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F22" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A22='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D22" s="9">
+        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A22='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A22='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F22" s="9">
+        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A22='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.8</v>
       </c>
       <c r="J22" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="9">
-        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>4.5977011494252873E-2</v>
       </c>
       <c r="M22" s="9">
-        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O22" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.0661157024793389E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1897,47 +2299,47 @@
         <v>30</v>
       </c>
       <c r="B23" s="9">
-        <f>IFERROR(SUMPRODUCT(($A23='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A23='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A23='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="C23" s="9">
-        <f>IFERROR(SUMPRODUCT(($A23='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A23='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A23='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0.75</v>
       </c>
       <c r="D23" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A23='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A23='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A23='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A23='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A23='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="E23" s="9">
+        <f>IFERROR(SUMPRODUCT(($A23='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A23='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A23='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A23='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A23='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="J23" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="9">
-        <f>IFERROR(SUMPRODUCT(($A23='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.12025316455696203</v>
       </c>
       <c r="L23" s="9">
-        <f>IFERROR(SUMPRODUCT(($A23='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="M23" s="9">
-        <f>IFERROR(SUMPRODUCT(($A23='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A23='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N23" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A23='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O23" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A23='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N23" s="9">
+        <f>IFERROR(SUMPRODUCT(($A23='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O23" s="9">
+        <f>IFERROR(SUMPRODUCT(($A23='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1945,47 +2347,47 @@
         <v>31</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A24='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A24='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A24='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A24='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A24='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A24='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="E24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A24='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A24='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="F24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A24='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="F24" s="9">
+        <f>IFERROR(SUMPRODUCT(($A24='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A24='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J24" t="s">
         <v>31</v>
       </c>
       <c r="K24" s="9">
-        <f>IFERROR(SUMPRODUCT(($A24='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L24" s="9">
-        <f>IFERROR(SUMPRODUCT(($A24='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M24" s="9">
-        <f>IFERROR(SUMPRODUCT(($A24='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A24='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O24" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A24='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N24" s="9">
+        <f>IFERROR(SUMPRODUCT(($A24='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <f>IFERROR(SUMPRODUCT(($A24='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>4.9586776859504134E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1993,47 +2395,47 @@
         <v>32</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A25='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A25='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A25='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A25='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A25='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A25='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A25='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A25='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A25='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="E25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A25='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A25='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="E25" s="9">
+        <f>IFERROR(SUMPRODUCT(($A25='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A25='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F25" s="9">
+        <f>IFERROR(SUMPRODUCT(($A25='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A25='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>32</v>
       </c>
       <c r="K25" s="9">
-        <f>IFERROR(SUMPRODUCT(($A25='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A25='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="L25" s="9">
-        <f>IFERROR(SUMPRODUCT(($A25='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A25='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
       <c r="M25" s="9">
-        <f>IFERROR(SUMPRODUCT(($A25='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A25='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
         <v>0</v>
       </c>
-      <c r="N25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O25" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A25='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+      <c r="N25" s="9">
+        <f>IFERROR(SUMPRODUCT(($A25='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="O25" s="9">
+        <f>IFERROR(SUMPRODUCT(($A25='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>3.71900826446281E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2041,47 +2443,47 @@
         <v>33</v>
       </c>
       <c r="B26" s="9">
-        <f>IFERROR(SUMPRODUCT(($A26='2014'!$B$2:$B$64)*('2014'!$C$2:$C$64)*1)/SUMPRODUCT(($A26='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A26='2014'!$B$2:$B$100)*('2014'!$C$2:$C$100)*1)/SUMPRODUCT(($A26='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
       <c r="C26" s="9">
-        <f>IFERROR(SUMPRODUCT(($A26='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A26='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A26='2015'!$B$2:$B$100)*('2015'!$C$2:$C$100)*1)/SUMPRODUCT(($A26='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A26='2016'!$B$2:$B$31)*('2016'!$C$2:$C$31)*1)/SUMPRODUCT(($A26='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E26" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A26='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A26='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F26" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A26='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A26='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
-        <v>-</v>
+      <c r="D26" s="9">
+        <f>IFERROR(SUMPRODUCT(($A26='2016'!$B$2:$B$100)*('2016'!$C$2:$C$100)*1)/SUMPRODUCT(($A26='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <f>IFERROR(SUMPRODUCT(($A26='2017'!$B$2:$B$100)*('2017'!$C$2:$C$100)*1)/SUMPRODUCT(($A26='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="9">
+        <f>IFERROR(SUMPRODUCT(($A26='2018'!$B$2:$B$100)*('2018'!$C$2:$C$100)*1)/SUMPRODUCT(($A26='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>33</v>
       </c>
       <c r="K26" s="9">
-        <f>IFERROR(SUMPRODUCT(($A26='2014'!$B$2:$B$64)*('2014'!$D$2:$D$64)*1)/SUMPRODUCT(('2014'!$D$2:$D$64)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A26='2014'!$B$2:$B$100)*('2014'!$D$2:$D$100)*1)/SUMPRODUCT(('2014'!$D$2:$D$100)*1),"-")</f>
         <v>0.10759493670886076</v>
       </c>
       <c r="L26" s="9">
-        <f>IFERROR(SUMPRODUCT(($A26='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <f>IFERROR(SUMPRODUCT(($A26='2015'!$B$2:$B$100)*('2015'!$D$2:$D$100)*1)/SUMPRODUCT(('2015'!$D$2:$D$100)*1),"-")</f>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="M26" s="9">
-        <f>IFERROR(SUMPRODUCT(($A26='2016'!$B$2:$B$31)*('2016'!$D$2:$D$31)*1)/SUMPRODUCT(('2016'!$D$2:$D$31)*1),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A26='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O26" s="9" t="str">
-        <f>IFERROR(SUMPRODUCT(($A26='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
+        <f>IFERROR(SUMPRODUCT(($A26='2016'!$B$2:$B$100)*('2016'!$D$2:$D$100)*1)/SUMPRODUCT(('2016'!$D$2:$D$100)*1),"-")</f>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="N26" s="9">
+        <f>IFERROR(SUMPRODUCT(($A26='2017'!$B$2:$B$100)*('2017'!$D$2:$D$100)*1)/SUMPRODUCT(('2017'!$D$2:$D$100)*1),"-")</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O26" s="9">
+        <f>IFERROR(SUMPRODUCT(($A26='2018'!$B$2:$B$100)*('2018'!$D$2:$D$100)*1)/SUMPRODUCT(('2018'!$D$2:$D$100)*1),"-")</f>
+        <v>2.8925619834710745E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2089,24 +2491,24 @@
         <v>15</v>
       </c>
       <c r="B27" s="9">
-        <f>SUM('2014'!$C$2:$C$64)/SUM('2014'!$D$2:$D$64)</f>
+        <f>SUM('2014'!$C$2:$C$100)/SUM('2014'!$D$2:$D$100)</f>
         <v>0.80379746835443033</v>
       </c>
       <c r="C27" s="9">
-        <f>SUM('2015'!$C$2:$C$81)/SUM('2015'!$D$2:$D$81)</f>
+        <f>SUM('2015'!$C$2:$C$100)/SUM('2015'!$D$2:$D$100)</f>
         <v>0.8045977011494253</v>
       </c>
       <c r="D27" s="9">
-        <f>SUM('2016'!$C$2:$C$31)/SUM('2016'!$D$2:$D$31)</f>
-        <v>0.82417582417582413</v>
-      </c>
-      <c r="E27" s="9" t="e">
-        <f>SUM('2017'!$C$2:$C$61)/SUM('2017'!$D$2:$D$61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="9" t="e">
-        <f>SUM('2018'!$C$2:$C$97)/SUM('2018'!$D$2:$D$97)</f>
-        <v>#DIV/0!</v>
+        <f>SUM('2016'!$C$2:$C$100)/SUM('2016'!$D$2:$D$100)</f>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="E27" s="9">
+        <f>SUM('2017'!$C$2:$C$100)/SUM('2017'!$D$2:$D$100)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="9">
+        <f>SUM('2018'!$C$2:$C$100)/SUM('2018'!$D$2:$D$100)</f>
+        <v>0.66528925619834711</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2114,24 +2516,24 @@
         <v>2</v>
       </c>
       <c r="B28" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$E$2:$E$64)*('2014'!$C$2:$C$64))/SUMPRODUCT(("Y"='2014'!$E$2:$E$64)*('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$E$2:$E$100)*('2014'!$C$2:$C$100))/SUMPRODUCT(("Y"='2014'!$E$2:$E$100)*('2014'!$D$2:$D$100))</f>
         <v>0.59090909090909094</v>
       </c>
       <c r="C28" s="9">
-        <f>SUMPRODUCT(("Y"='2015'!$E$2:$E$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$E$2:$E$81)*('2015'!$D$2:$D$81))</f>
+        <f>SUMPRODUCT(("Y"='2015'!$E$2:$E$100)*('2015'!$C$2:$C$100))/SUMPRODUCT(("Y"='2015'!$E$2:$E$100)*('2015'!$D$2:$D$100))</f>
         <v>0.42105263157894735</v>
       </c>
       <c r="D28" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$E$2:$E$31)*('2016'!$C$2:$C$31))/SUMPRODUCT(("Y"='2016'!$E$2:$E$31)*('2016'!$D$2:$D$31))</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E28" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$E$2:$E$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$E$2:$E$97)*('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$E$2:$E$100)*('2016'!$C$2:$C$100))/SUMPRODUCT(("Y"='2016'!$E$2:$E$100)*('2016'!$D$2:$D$100))</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E28" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$E$2:$E$100)*('2017'!$C$2:$C$100))/SUMPRODUCT(("Y"='2017'!$E$2:$E$100)*('2017'!$D$2:$D$100))</f>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="F28" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$E$2:$E$100)*('2018'!$C$2:$C$100))/SUMPRODUCT(("Y"='2018'!$E$2:$E$100)*('2018'!$D$2:$D$100))</f>
+        <v>0.67391304347826086</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2139,24 +2541,24 @@
         <v>3</v>
       </c>
       <c r="B29" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$F$2:$F$64)*('2014'!$C$2:$C$64))/SUMPRODUCT(("Y"='2014'!$F$2:$F$64)*('2014'!$D$2:$D$64))</f>
-        <v>0.75</v>
+        <f>SUMPRODUCT(("Y"='2014'!$F$2:$F$100)*('2014'!$C$2:$C$100))/SUMPRODUCT(("Y"='2014'!$F$2:$F$100)*('2014'!$D$2:$D$100))</f>
+        <v>0.77631578947368418</v>
       </c>
       <c r="C29" s="9">
-        <f>SUMPRODUCT(("Y"='2015'!$F$2:$F$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$F$2:$F$81)*('2015'!$D$2:$D$81))</f>
-        <v>0.87356321839080464</v>
+        <f>SUMPRODUCT(("Y"='2015'!$F$2:$F$100)*('2015'!$C$2:$C$100))/SUMPRODUCT(("Y"='2015'!$F$2:$F$100)*('2015'!$D$2:$D$100))</f>
+        <v>0.82653061224489799</v>
       </c>
       <c r="D29" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$F$2:$F$31)*('2016'!$C$2:$C$31))/SUMPRODUCT(("Y"='2016'!$F$2:$F$31)*('2016'!$D$2:$D$31))</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="E29" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$F$2:$F$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$F$2:$F$61)*('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$F$2:$F$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$F$2:$F$97)*('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$F$2:$F$100)*('2016'!$C$2:$C$100))/SUMPRODUCT(("Y"='2016'!$F$2:$F$100)*('2016'!$D$2:$D$100))</f>
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="E29" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$F$2:$F$100)*('2017'!$C$2:$C$100))/SUMPRODUCT(("Y"='2017'!$F$2:$F$100)*('2017'!$D$2:$D$100))</f>
+        <v>0.72649572649572647</v>
+      </c>
+      <c r="F29" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$F$2:$F$100)*('2018'!$C$2:$C$100))/SUMPRODUCT(("Y"='2018'!$F$2:$F$100)*('2018'!$D$2:$D$100))</f>
+        <v>0.56164383561643838</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2164,24 +2566,24 @@
         <v>4</v>
       </c>
       <c r="B30" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$G$2:$G$64)*('2014'!$C$2:$C$64))/SUMPRODUCT(("Y"='2014'!$G$2:$G$64)*('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$G$2:$G$100)*('2014'!$C$2:$C$100))/SUMPRODUCT(("Y"='2014'!$G$2:$G$100)*('2014'!$D$2:$D$100))</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="C30" s="9">
-        <f>SUMPRODUCT(("Y"='2015'!$G$2:$G$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$G$2:$G$81)*('2015'!$D$2:$D$81))</f>
+        <f>SUMPRODUCT(("Y"='2015'!$G$2:$G$100)*('2015'!$C$2:$C$100))/SUMPRODUCT(("Y"='2015'!$G$2:$G$100)*('2015'!$D$2:$D$100))</f>
         <v>0.89473684210526316</v>
       </c>
       <c r="D30" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$G$2:$G$31)*('2016'!$C$2:$C$31))/SUMPRODUCT(("Y"='2016'!$G$2:$G$31)*('2016'!$D$2:$D$31))</f>
-        <v>0.95</v>
-      </c>
-      <c r="E30" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$G$2:$G$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$G$2:$G$61)*('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$G$2:$G$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$G$2:$G$97)*('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$G$2:$G$100)*('2016'!$C$2:$C$100))/SUMPRODUCT(("Y"='2016'!$G$2:$G$100)*('2016'!$D$2:$D$100))</f>
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="E30" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$G$2:$G$100)*('2017'!$C$2:$C$100))/SUMPRODUCT(("Y"='2017'!$G$2:$G$100)*('2017'!$D$2:$D$100))</f>
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$G$2:$G$100)*('2018'!$C$2:$C$100))/SUMPRODUCT(("Y"='2018'!$G$2:$G$100)*('2018'!$D$2:$D$100))</f>
+        <v>0.75324675324675328</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,24 +2591,24 @@
         <v>11</v>
       </c>
       <c r="B31" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$64)*('2014'!$C$2:$C$64))/SUMPRODUCT(("Y"='2014'!$H$2:$H$64)*('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$100)*('2014'!$C$2:$C$100))/SUMPRODUCT(("Y"='2014'!$H$2:$H$100)*('2014'!$D$2:$D$100))</f>
         <v>0.83</v>
       </c>
       <c r="C31" s="9">
-        <f>SUMPRODUCT(("Y"='2015'!$H$2:$H$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$H$2:$H$81)*('2015'!$D$2:$D$81))</f>
+        <f>SUMPRODUCT(("Y"='2015'!$H$2:$H$100)*('2015'!$C$2:$C$100))/SUMPRODUCT(("Y"='2015'!$H$2:$H$100)*('2015'!$D$2:$D$100))</f>
         <v>0.81720430107526887</v>
       </c>
       <c r="D31" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$31)*('2016'!$C$2:$C$31))/SUMPRODUCT(("Y"='2016'!$H$2:$H$31)*('2016'!$D$2:$D$31))</f>
-        <v>0.8</v>
-      </c>
-      <c r="E31" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$H$2:$H$97)*('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$100)*('2016'!$C$2:$C$100))/SUMPRODUCT(("Y"='2016'!$H$2:$H$100)*('2016'!$D$2:$D$100))</f>
+        <v>0.83471074380165289</v>
+      </c>
+      <c r="E31" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$100)*('2017'!$C$2:$C$100))/SUMPRODUCT(("Y"='2017'!$H$2:$H$100)*('2017'!$D$2:$D$100))</f>
+        <v>0.84868421052631582</v>
+      </c>
+      <c r="F31" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$100)*('2018'!$C$2:$C$100))/SUMPRODUCT(("Y"='2018'!$H$2:$H$100)*('2018'!$D$2:$D$100))</f>
+        <v>0.62371134020618557</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2214,24 +2616,24 @@
         <v>6</v>
       </c>
       <c r="B32" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$64)*('2014'!$C$2:$C$64))/SUMPRODUCT(("Y"='2014'!$I$2:$I$64)*('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$100)*('2014'!$C$2:$C$100))/SUMPRODUCT(("Y"='2014'!$I$2:$I$100)*('2014'!$D$2:$D$100))</f>
         <v>0.8</v>
       </c>
       <c r="C32" s="9">
-        <f>SUMPRODUCT(("Y"='2015'!$I$2:$I$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$I$2:$I$81)*('2015'!$D$2:$D$81))</f>
+        <f>SUMPRODUCT(("Y"='2015'!$I$2:$I$100)*('2015'!$C$2:$C$100))/SUMPRODUCT(("Y"='2015'!$I$2:$I$100)*('2015'!$D$2:$D$100))</f>
         <v>0.79012345679012341</v>
       </c>
       <c r="D32" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$31)*('2016'!$C$2:$C$31))/SUMPRODUCT(("Y"='2016'!$I$2:$I$31)*('2016'!$D$2:$D$31))</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="E32" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$I$2:$I$97)*('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$100)*('2016'!$C$2:$C$100))/SUMPRODUCT(("Y"='2016'!$I$2:$I$100)*('2016'!$D$2:$D$100))</f>
+        <v>0.92982456140350878</v>
+      </c>
+      <c r="E32" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$100)*('2017'!$C$2:$C$100))/SUMPRODUCT(("Y"='2017'!$I$2:$I$100)*('2017'!$D$2:$D$100))</f>
+        <v>0.70652173913043481</v>
+      </c>
+      <c r="F32" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$100)*('2018'!$C$2:$C$100))/SUMPRODUCT(("Y"='2018'!$I$2:$I$100)*('2018'!$D$2:$D$100))</f>
+        <v>0.76576576576576572</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,24 +2641,24 @@
         <v>16</v>
       </c>
       <c r="B33" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$J$2:$J$64)*('2014'!$C$2:$C$64))/SUMPRODUCT(("Y"='2014'!$J$2:$J$64)*('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$J$2:$J$100)*('2014'!$C$2:$C$100))/SUMPRODUCT(("Y"='2014'!$J$2:$J$100)*('2014'!$D$2:$D$100))</f>
         <v>0.38095238095238093</v>
       </c>
       <c r="C33" s="9">
-        <f>SUMPRODUCT(("Y"='2015'!$J$2:$J$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$J$2:$J$81)*('2015'!$D$2:$D$81))</f>
+        <f>SUMPRODUCT(("Y"='2015'!$J$2:$J$100)*('2015'!$C$2:$C$100))/SUMPRODUCT(("Y"='2015'!$J$2:$J$100)*('2015'!$D$2:$D$100))</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="D33" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$J$2:$J$31)*('2016'!$C$2:$C$31))/SUMPRODUCT(("Y"='2016'!$J$2:$J$31)*('2016'!$D$2:$D$31))</f>
+        <f>SUMPRODUCT(("Y"='2016'!$J$2:$J$100)*('2016'!$C$2:$C$100))/SUMPRODUCT(("Y"='2016'!$J$2:$J$100)*('2016'!$D$2:$D$100))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$J$2:$J$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$J$2:$J$61)*('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$J$2:$J$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$J$2:$J$97)*('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+      <c r="E33" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$J$2:$J$100)*('2017'!$C$2:$C$100))/SUMPRODUCT(("Y"='2017'!$J$2:$J$100)*('2017'!$D$2:$D$100))</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F33" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$J$2:$J$100)*('2018'!$C$2:$C$100))/SUMPRODUCT(("Y"='2018'!$J$2:$J$100)*('2018'!$D$2:$D$100))</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$64)*('2014'!$D$2:$D$64))/SUMPRODUCT(('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$100)*('2014'!$D$2:$D$100))/SUMPRODUCT(('2014'!$D$2:$D$100))</f>
         <v>0.63291139240506333</v>
       </c>
       <c r="C34" s="9">
@@ -2272,16 +2674,16 @@
         <v>0.53448275862068961</v>
       </c>
       <c r="D34" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$31)*('2016'!$D$2:$D$31))/SUMPRODUCT(('2016'!$D$2:$D$31))</f>
-        <v>0.49450549450549453</v>
-      </c>
-      <c r="E34" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$D$2:$D$61))/SUMPRODUCT(('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$97)*('2018'!$D$2:$D$97))/SUMPRODUCT(('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$100)*('2016'!$D$2:$D$100))/SUMPRODUCT(('2016'!$D$2:$D$100))</f>
+        <v>0.6954022988505747</v>
+      </c>
+      <c r="E34" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$100)*('2017'!$D$2:$D$100))/SUMPRODUCT(('2017'!$D$2:$D$100))</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F34" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$100)*('2018'!$D$2:$D$100))/SUMPRODUCT(('2018'!$D$2:$D$100))</f>
+        <v>0.80165289256198347</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="9">
-        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$64)*('2014'!$D$2:$D$64))/SUMPRODUCT(('2014'!$D$2:$D$64))</f>
+        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$100)*('2014'!$D$2:$D$100))/SUMPRODUCT(('2014'!$D$2:$D$100))</f>
         <v>0.44303797468354428</v>
       </c>
       <c r="C35" s="9">
@@ -2297,16 +2699,16 @@
         <v>0.46551724137931033</v>
       </c>
       <c r="D35" s="9">
-        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$31)*('2016'!$D$2:$D$31))/SUMPRODUCT(('2016'!$D$2:$D$31))</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="E35" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$D$2:$D$61))/SUMPRODUCT(('2017'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="9" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$97)*('2018'!$D$2:$D$97))/SUMPRODUCT(('2018'!$D$2:$D$97))</f>
-        <v>#DIV/0!</v>
+        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$100)*('2016'!$D$2:$D$100))/SUMPRODUCT(('2016'!$D$2:$D$100))</f>
+        <v>0.32758620689655171</v>
+      </c>
+      <c r="E35" s="9">
+        <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$100)*('2017'!$D$2:$D$100))/SUMPRODUCT(('2017'!$D$2:$D$100))</f>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="F35" s="9">
+        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$100)*('2018'!$D$2:$D$100))/SUMPRODUCT(('2018'!$D$2:$D$100))</f>
+        <v>0.45867768595041325</v>
       </c>
     </row>
   </sheetData>
@@ -2377,6 +2779,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2386,7 +2789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,9 +3708,11 @@
       <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="18"/>
       <c r="H35" s="3" t="s">
         <v>35</v>
       </c>
@@ -3854,7 +4259,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,9 +4557,11 @@
       <c r="D11" s="11">
         <v>1.5</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="22"/>
       <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
@@ -4178,8 +4585,11 @@
       <c r="D12" s="11">
         <v>1.25</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="22"/>
       <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
@@ -5505,11 +5915,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6299,14 +6709,20 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -6318,209 +6734,434 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>0.5</v>
+      </c>
       <c r="D32" s="4">
         <v>0.5</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.5</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="L37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2.5</v>
+      </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="L43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3.25</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="L44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="3"/>
@@ -6531,7 +7172,8 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="3"/>
@@ -6542,7 +7184,8 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3"/>
@@ -6553,7 +7196,8 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="3"/>
@@ -6564,7 +7208,8 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="3"/>
@@ -6575,7 +7220,8 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="3"/>
@@ -6586,7 +7232,8 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="3"/>
@@ -6597,6 +7244,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6605,11 +7255,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L61"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6661,750 +7311,1764 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>1.75</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.25</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
+      <c r="L4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K22" s="3"/>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K25" s="3"/>
+      <c r="L25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.25</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
+      <c r="L30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.25</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
+      <c r="L33" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
+      <c r="L36" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
+      <c r="L37" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
+      <c r="L41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K42" s="3"/>
+      <c r="L42" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.25</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K43" s="3"/>
+      <c r="L43" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2.25</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
+      <c r="L48" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
+      <c r="L49" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.25</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="A52" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="5">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
+      <c r="L54" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="5">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
+      <c r="L56" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="A57" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="A58" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1.5</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="A59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
+      <c r="L59" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="A60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="A61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="A62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1.5</v>
+      </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7417,8 +9081,8 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7470,607 +9134,1347 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="L3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.5</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
+      <c r="L6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.5</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
+      <c r="L8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
+      <c r="L10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.25</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.25</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="K19" s="3"/>
+      <c r="L19" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.25</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K26" s="3"/>
+      <c r="L26" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K27" s="3"/>
+      <c r="L27" s="19" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.5</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
+      <c r="L28" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
+      <c r="L30" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
+      <c r="L31" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
+      <c r="L32" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
       <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K35" s="3"/>
+      <c r="L35" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K36" s="3"/>
+      <c r="L36" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
+      <c r="L37" s="19"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="5">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
+      <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
+      <c r="L39" s="19"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="A40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
+      <c r="L40" s="19"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K41" s="3"/>
+      <c r="L41" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K42" s="3"/>
+      <c r="L42" s="19" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.25</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
+      <c r="L44" s="19" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="1"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
+      <c r="L47" s="19"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="19"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1.25</v>
+      </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="19"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
